--- a/biology/Botanique/Vana-Rannamõisa_tee/Vana-Rannamõisa_tee.xlsx
+++ b/biology/Botanique/Vana-Rannamõisa_tee/Vana-Rannamõisa_tee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vana-Rannam%C3%B5isa_tee</t>
+          <t>Vana-Rannamõisa_tee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le rue du vieux manoir côtier (en estonien : Vana-Rannamõisa tee) est une rue Tallinn en Estonie[1].
+Le rue du vieux manoir côtier (en estonien : Vana-Rannamõisa tee) est une rue Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vana-Rannam%C3%B5isa_tee</t>
+          <t>Vana-Rannamõisa_tee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue Vana-Rannamõisa tee traverse les quartiers Õismäe, Vismeistri ja Pikaliiva de l'arrondissement d'Haabersti.
 La rue Vana-Rannamõisa tee commence et se termine dans la rue Rannamõisa tee (et). 
-Parcourant un demi-cercle, elle croise les rues Kakumäe tee, Pikaliiva tänav, Alemaa tänav et plusieurs petites rues[2]. 
+Parcourant un demi-cercle, elle croise les rues Kakumäe tee, Pikaliiva tänav, Alemaa tänav et plusieurs petites rues. 
 Le sentier de randonnée de la tourbière d'Õismäe (et) passe près de la rue Vana-Rannamõisa.
-Sa longueur est de 2 966 m[3].
+Sa longueur est de 2 966 m.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vana-Rannam%C3%B5isa_tee</t>
+          <t>Vana-Rannamõisa_tee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Lieux et monuments de la rue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue Vana-Rannamõisa tee est bordée d'immeubles résidentiels de faible hauteur. 
-Il y a plusieurs petites boutiques[4].
+Il y a plusieurs petites boutiques.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vana-Rannam%C3%B5isa_tee</t>
+          <t>Vana-Rannamõisa_tee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes de bus n° 41 et 41В desservent la rue[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes de bus n° 41 et 41В desservent la rue.
 </t>
         </is>
       </c>
